--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cort-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cort-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,13 +534,13 @@
         <v>0.217038</v>
       </c>
       <c r="H2">
-        <v>0.6511140000000001</v>
+        <v>0.651114</v>
       </c>
       <c r="I2">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="J2">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,27 +555,27 @@
         <v>0.637506</v>
       </c>
       <c r="O2">
-        <v>0.4079957453644119</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.407995745364412</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.04612100907600001</v>
+        <v>0.046121009076</v>
       </c>
       <c r="R2">
         <v>0.415089081684</v>
       </c>
       <c r="S2">
-        <v>0.2874306494896868</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="T2">
-        <v>0.2874306494896868</v>
+        <v>0.8572432933444277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -584,7 +584,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -593,16 +593,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.217038</v>
+        <v>0.03614333333333333</v>
       </c>
       <c r="H3">
-        <v>0.6511140000000001</v>
+        <v>0.10843</v>
       </c>
       <c r="I3">
-        <v>0.7044942324899998</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="J3">
-        <v>0.7044942324899998</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -611,152 +611,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.3083416666666667</v>
+        <v>0.212502</v>
       </c>
       <c r="N3">
-        <v>0.925025</v>
+        <v>0.637506</v>
       </c>
       <c r="O3">
-        <v>0.592004254635588</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.592004254635588</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.06692185865000001</v>
+        <v>0.00768053062</v>
       </c>
       <c r="R3">
-        <v>0.6022967278500001</v>
+        <v>0.06912477558000001</v>
       </c>
       <c r="S3">
-        <v>0.417063583000313</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="T3">
-        <v>0.417063583000313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.09103833333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.273115</v>
-      </c>
-      <c r="I4">
-        <v>0.2955057675100002</v>
-      </c>
-      <c r="J4">
-        <v>0.2955057675100002</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.212502</v>
-      </c>
-      <c r="N4">
-        <v>0.637506</v>
-      </c>
-      <c r="O4">
-        <v>0.4079957453644119</v>
-      </c>
-      <c r="P4">
-        <v>0.407995745364412</v>
-      </c>
-      <c r="Q4">
-        <v>0.01934582791</v>
-      </c>
-      <c r="R4">
-        <v>0.17411245119</v>
-      </c>
-      <c r="S4">
-        <v>0.1205650958747251</v>
-      </c>
-      <c r="T4">
-        <v>0.1205650958747252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.09103833333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.273115</v>
-      </c>
-      <c r="I5">
-        <v>0.2955057675100002</v>
-      </c>
-      <c r="J5">
-        <v>0.2955057675100002</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.3083416666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.925025</v>
-      </c>
-      <c r="O5">
-        <v>0.592004254635588</v>
-      </c>
-      <c r="P5">
-        <v>0.592004254635588</v>
-      </c>
-      <c r="Q5">
-        <v>0.02807091143055556</v>
-      </c>
-      <c r="R5">
-        <v>0.252638202875</v>
-      </c>
-      <c r="S5">
-        <v>0.174940671635275</v>
-      </c>
-      <c r="T5">
-        <v>0.174940671635275</v>
+        <v>0.1427567066555723</v>
       </c>
     </row>
   </sheetData>
